--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: -1,7)</t>
+          <t>(308051846, Eyal  Sofer: 4,9)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: 2,4)</t>
+          <t>(312049950, Molham  Peretz: -1,-3)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: -6,-9)</t>
+          <t>(308073899, Anan  Kirshenbaum: -2,-9)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -4,-3)</t>
+          <t>(318869187, Soaad  Leibovich: -9,-10)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -7,1)</t>
+          <t>(205898513, Asaf  Braymok: -3,-7)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: -7,-5)</t>
+          <t>(318428158, Tal  Asulin: -1,-8)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: -3,0)</t>
+          <t>(316028364, Sami  Castro: 2,-10)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 422.6572220287504</t>
+          <t>cost: 218.5182676381342</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 54.53144440575009</t>
+          <t>time: 38.703653527626834</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: 4,9)</t>
+          <t>(308051846, Eyal  Sofer: -9,-5)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: -1,-3)</t>
+          <t>(312049950, Molham  Peretz: -8,-7)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: -2,-9)</t>
+          <t>(308073899, Anan  Kirshenbaum: -10,-7)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -9,-10)</t>
+          <t>(318869187, Soaad  Leibovich: -10,0)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -3,-7)</t>
+          <t>(205898513, Asaf  Braymok: 7,-1)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: -1,-8)</t>
+          <t>(318428158, Tal  Asulin: -4,4)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: 2,-10)</t>
+          <t>(316028364, Sami  Castro: 8,0)</t>
         </is>
       </c>
     </row>
@@ -468,18 +468,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 218.5182676381342</t>
+          <t>cost: 358.6424165715349</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 38.703653527626834</t>
+          <t>time: 66.72848331430698</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: -9,-5)</t>
+          <t>(308051846, Eyal  Sofer: -3,3)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: -8,-7)</t>
+          <t>(312049950, Molham  Peretz: 3,-6)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: -10,-7)</t>
+          <t>(308073899, Anan  Kirshenbaum: 4,1)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -10,0)</t>
+          <t>(318869187, Soaad  Leibovich: 1,-1)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: 7,-1)</t>
+          <t>(205898513, Asaf  Braymok: 5,-7)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: -4,4)</t>
+          <t>(318428158, Tal  Asulin: 6,5)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: 8,0)</t>
+          <t>(316028364, Sami  Castro: -3,2)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 358.6424165715349</t>
+          <t>cost: 343.78382769538166</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 66.72848331430698</t>
+          <t>time: 63.75676553907633</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: 4,9)</t>
+          <t>(308051846, Eyal  Sofer: -1,2)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: -1,-3)</t>
+          <t>(312049950, Molham  Peretz: -7,-9)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: -2,-9)</t>
+          <t>(308073899, Anan  Kirshenbaum: -8,0)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -9,-10)</t>
+          <t>(318869187, Soaad  Leibovich: 3,-3)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -3,-7)</t>
+          <t>(205898513, Asaf  Braymok: 2,3)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: -1,-8)</t>
+          <t>(318428158, Tal  Asulin: 6,9)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: 2,-10)</t>
+          <t>(316028364, Sami  Castro: 5,4)</t>
         </is>
       </c>
     </row>
@@ -468,18 +468,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 218.5182676381342</t>
+          <t>cost: 338.6127685688407</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 38.703653527626834</t>
+          <t>time: 62.72255371376816</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: -1,2)</t>
+          <t>(308051846, Eyal  Sofer: -4,-8)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: -7,-9)</t>
+          <t>(312049950, Molham  Peretz: -5,-9)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: -8,0)</t>
+          <t>(308073899, Anan  Kirshenbaum: 0,8)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: 3,-3)</t>
+          <t>(318869187, Soaad  Leibovich: -1,-1)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: 2,3)</t>
+          <t>(205898513, Asaf  Braymok: -2,-8)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: 6,9)</t>
+          <t>(318428158, Tal  Asulin: 6,5)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: 5,4)</t>
+          <t>(316028364, Sami  Castro: -6,0)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 338.6127685688407</t>
+          <t>cost: 434.7749194859469</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 62.72255371376816</t>
+          <t>time: 81.95498389718938</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: -4,-8)</t>
+          <t>(308051846, Eyal  Sofer: 7,-9)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: -5,-9)</t>
+          <t>(312049950, Molham  Peretz: -8,8)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: 0,8)</t>
+          <t>(308073899, Anan  Kirshenbaum: 0,-2)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -1,-1)</t>
+          <t>(318869187, Soaad  Leibovich: -5,-5)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -2,-8)</t>
+          <t>(205898513, Asaf  Braymok: -10,8)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: 6,5)</t>
+          <t>(318428158, Tal  Asulin: 3,9)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: -6,0)</t>
+          <t>(316028364, Sami  Castro: -8,-7)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 434.7749194859469</t>
+          <t>cost: 616.4732081726651</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 81.95498389718938</t>
+          <t>time: 118.29464163453304</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: 7,-9)</t>
+          <t>(308051846, Eyal  Sofer: -10,-2)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: -8,8)</t>
+          <t>(312049950, Molham  Peretz: -2,8)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: 0,-2)</t>
+          <t>(308073899, Anan  Kirshenbaum: 9,-4)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -5,-5)</t>
+          <t>(318869187, Soaad  Leibovich: -1,-8)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -10,8)</t>
+          <t>(205898513, Asaf  Braymok: -5,-9)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: 3,9)</t>
+          <t>(318428158, Tal  Asulin: -2,4)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: -8,-7)</t>
+          <t>(316028364, Sami  Castro: 2,7)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 616.4732081726651</t>
+          <t>cost: 483.3880298169999</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 118.29464163453304</t>
+          <t>time: 91.6776059634</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(308051846, Eyal  Sofer: -10,-2)</t>
+          <t>(312049950, Molham  Peretz: 3,6)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: -2,8)</t>
+          <t>(308073899, Anan  Kirshenbaum: 7,6)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: 9,-4)</t>
+          <t>(318869187, Soaad  Leibovich: -4,2)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -1,-8)</t>
+          <t>(205898513, Asaf  Braymok: -8,-4)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -5,-9)</t>
+          <t>(318428158, Tal  Asulin: 3,4)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: -2,4)</t>
+          <t>(316028364, Sami  Castro: 8,9)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: 2,7)</t>
+          <t>(318294931, Shalev  Afanasenko: 2,-7)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 483.3880298169999</t>
+          <t>cost: 303.1496768052041</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 91.6776059634</t>
+          <t>time: 55.62993536104082</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: 3,6)</t>
+          <t>(312049950, Molham  Peretz: 7,8)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: 7,6)</t>
+          <t>(308073899, Anan  Kirshenbaum: 3,2)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -4,2)</t>
+          <t>(318869187, Soaad  Leibovich: 9,2)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -8,-4)</t>
+          <t>(205898513, Asaf  Braymok: 3,6)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: 3,4)</t>
+          <t>(318428158, Tal  Asulin: 7,-7)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: 8,9)</t>
+          <t>(316028364, Sami  Castro: -3,-10)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: 2,-7)</t>
+          <t>(318294931, Shalev  Afanasenko: -3,-8)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 303.1496768052041</t>
+          <t>cost: 389.19254997238943</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 55.62993536104082</t>
+          <t>time: 72.83850999447787</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: 3,6)</t>
+          <t>(312049950, Molham  Peretz: -3,0)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: 7,6)</t>
+          <t>(308073899, Anan  Kirshenbaum: -4,-1)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -4,2)</t>
+          <t>(318869187, Soaad  Leibovich: 4,-3)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -8,-4)</t>
+          <t>(205898513, Asaf  Braymok: -9,-7)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: 3,4)</t>
+          <t>(318428158, Tal  Asulin: 6,2)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: 8,9)</t>
+          <t>(316028364, Sami  Castro: -7,7)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: 2,-7)</t>
+          <t>(318294931, Shalev  Afanasenko: -7,-5)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 303.1496768052041</t>
+          <t>cost: 429.68744177720527</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 55.62993536104082</t>
+          <t>time: 80.93748835544105</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: -3,0)</t>
+          <t>(312049950, Molham  Peretz: 9,3)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: -4,-1)</t>
+          <t>(308073899, Anan  Kirshenbaum: 9,3)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: 4,-3)</t>
+          <t>(318869187, Soaad  Leibovich: -9,-3)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -9,-7)</t>
+          <t>(205898513, Asaf  Braymok: -5,8)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: 6,2)</t>
+          <t>(316028364, Sami  Castro: -3,9)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: -7,7)</t>
+          <t>(318428158, Tal  Asulin: -2,9)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -7,-5)</t>
+          <t>(318294931, Shalev  Afanasenko: -1,1)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 429.68744177720527</t>
+          <t>cost: 328.0235462732961</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 80.93748835544105</t>
+          <t>time: 60.60470925465924</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: 9,3)</t>
+          <t>(312049950, Molham  Peretz: 7,2)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: 9,3)</t>
+          <t>(308073899, Anan  Kirshenbaum: 5,-1)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -9,-3)</t>
+          <t>(318869187, Soaad  Leibovich: 4,-4)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -5,8)</t>
+          <t>(205898513, Asaf  Braymok: 3,-4)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: -3,9)</t>
+          <t>(318294931, Shalev  Afanasenko: -7,-4)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: -2,9)</t>
+          <t>(318428158, Tal  Asulin: -6,2)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -1,1)</t>
+          <t>(316028364, Sami  Castro: -1,6)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 328.0235462732961</t>
+          <t>cost: 253.644346252802</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 60.60470925465924</t>
+          <t>time: 45.72886925056039</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,37 +424,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(312049950, Molham  Peretz: 7,2)</t>
+          <t>(318294931, Shalev  Afanasenko: 3,8)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: 5,-1)</t>
+          <t>(313925141, Elad   Amer: 2,6)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: 4,-4)</t>
+          <t>(315060103, Dan  Mshelh: -1,9)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: 3,-4)</t>
+          <t>(308035542, Anastasia  Kubi: -4,9)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -7,-4)</t>
+          <t>(205898513, Asaf  Braymok: -3,8)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(318428158, Tal  Asulin: -6,2)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>(316028364, Sami  Castro: -1,6)</t>
+          <t>(305251175, Or  Leder: -2,6)</t>
         </is>
       </c>
     </row>
@@ -468,14 +463,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 253.644346252802</t>
+          <t>cost: 133.00043934506536</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 45.72886925056039</t>
+          <t>time: 21.600087869013073</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,32 +424,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: 3,8)</t>
+          <t>(205898513, Asaf  Braymok: 8,7)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: 2,6)</t>
+          <t>(315891549, Raz  Halaby: 7,0)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: -1,9)</t>
+          <t>(312049950, Molham  Peretz: 6,-4)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(308035542, Anastasia  Kubi: -4,9)</t>
+          <t>(316028364, Sami  Castro: 7,-4)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: -3,8)</t>
+          <t>(302962915, Asher  Odeh: 8,-5)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(305251175, Or  Leder: -2,6)</t>
+          <t>(318428158, Tal  Asulin: 7,-9)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>(203957296, Omri Ben Shabat: 8,-10)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>(313925141, Elad   Amer: 3,-5)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>(205807308, Sariel  Basis: 2,1)</t>
         </is>
       </c>
     </row>
@@ -463,14 +478,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 133.00043934506536</t>
+          <t>cost: 232.16533175933014</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 21.600087869013073</t>
+          <t>time: 41.433066351866024</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,68 +424,375 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(205898513, Asaf  Braymok: 8,7)</t>
+          <t>path id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 7,0)</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>(312049950, Molham  Peretz: 6,-4)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>(316028364, Sami  Castro: 7,-4)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>(302962915, Asher  Odeh: 8,-5)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>(318428158, Tal  Asulin: 7,-9)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>(203957296, Omri Ben Shabat: 8,-10)</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>(313925141, Elad   Amer: 3,-5)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>(205807308, Sariel  Basis: 2,1)</t>
+          <t>myPath</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>car id: 123</t>
+          <t>car.ID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 232.16533175933014</t>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mySchool</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 41.433066351866024</t>
+          <t>nChildren</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>timeOfStart</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soaad </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Leibovich</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-4,-10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sami </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-3,-8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>703.3137765845077</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avihai </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kipnis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3,-10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>710.4611786045662</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anastasia </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Kubi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5,-6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>715.0802775956929</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asaf </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Braymok</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4,-5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>716.8775520572889</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mshelh</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2,-6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>719.3783957057448</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Molham </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Peretz</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-2,-6</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>723.3806467970128</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mySchool</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>730.085535251953</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>30.085535251953026</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -489,22 +489,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soaad </t>
+          <t xml:space="preserve">Sami </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Leibovich</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-4,-10</t>
+          <t>-10,-8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -526,22 +526,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sami </t>
+          <t xml:space="preserve">Asaf </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Braymok</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-3,-8</t>
+          <t>-9,-8</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>703.3137765845077</t>
+          <t>702.0</t>
         </is>
       </c>
     </row>
@@ -563,22 +563,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avihai </t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kipnis</t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3,-10</t>
+          <t>-8,-6</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>710.4611786045662</t>
+          <t>705.0</t>
         </is>
       </c>
     </row>
@@ -600,22 +600,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anastasia </t>
+          <t xml:space="preserve">Tal </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kubi</t>
+          <t>Asulin</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5,-6</t>
+          <t>-9,-3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>715.0802775956929</t>
+          <t>710.0</t>
         </is>
       </c>
     </row>
@@ -637,22 +637,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asaf </t>
+          <t xml:space="preserve">Aviv </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Braymok</t>
+          <t>Levi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4,-5</t>
+          <t>-9,-1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>716.8775520572889</t>
+          <t>713.0</t>
         </is>
       </c>
     </row>
@@ -674,22 +674,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Omri</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mshelh</t>
+          <t>Ben Shabat</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2,-6</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>719.3783957057448</t>
+          <t>715.0</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Molham </t>
+          <t xml:space="preserve">Anan </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Peretz</t>
+          <t>Kirshenbaum</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-2,-6</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>723.3806467970128</t>
+          <t>717.0</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>730.085535251953</t>
+          <t>729.0</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30.085535251953026</t>
+          <t>29.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -489,22 +489,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sami </t>
+          <t>Matan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Vakrat</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10,-8</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -526,22 +526,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asaf </t>
+          <t xml:space="preserve">Anastasia </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Braymok</t>
+          <t>Kubi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-9,-8</t>
+          <t>8,-8</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>702.0</t>
+          <t>712.0</t>
         </is>
       </c>
     </row>
@@ -563,22 +563,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t xml:space="preserve">Anastasia </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t>Kubi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-8,-6</t>
+          <t>8,-8</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>705.0</t>
+          <t>712.0</t>
         </is>
       </c>
     </row>
@@ -600,22 +600,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tal </t>
+          <t xml:space="preserve">Avihai </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Asulin</t>
+          <t>Kipnis</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-9,-3</t>
+          <t>2,-7</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>710.0</t>
+          <t>719.0</t>
         </is>
       </c>
     </row>
@@ -637,22 +637,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aviv </t>
+          <t xml:space="preserve">Sariel </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Levi</t>
+          <t>Basis</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-9,-1</t>
+          <t>2,-5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>713.0</t>
+          <t>722.0</t>
         </is>
       </c>
     </row>
@@ -674,22 +674,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Omri</t>
+          <t xml:space="preserve">Asaf </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ben Shabat</t>
+          <t>Braymok</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>4,-5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>715.0</t>
+          <t>725.0</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anan </t>
+          <t>Omri</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kirshenbaum</t>
+          <t>Ben Shabat</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>2,-3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -736,29 +736,34 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>717.0</t>
+          <t>729.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ironiah</t>
+          <t xml:space="preserve">Christina </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>mySchool</t>
+          <t>Uksusman</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4,-1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -768,31 +773,63 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>729.0</t>
+          <t>733.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mySchool</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>738.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>29.0</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>38.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>7:00:00</t>
         </is>
       </c>
     </row>
@@ -489,32 +489,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Matan</t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vakrat</t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>-1.69,7.1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>7:00:00</t>
         </is>
       </c>
     </row>
@@ -526,32 +526,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anastasia </t>
+          <t xml:space="preserve">Patti  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kubi</t>
+          <t xml:space="preserve">Lavenia  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8,-8</t>
+          <t>-2.21,7.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Jennell(mother): 0503029941</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>712.0</t>
+          <t>7:01:00</t>
         </is>
       </c>
     </row>
@@ -563,32 +563,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anastasia </t>
+          <t xml:space="preserve">Randolph  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kubi</t>
+          <t xml:space="preserve">Bridgette  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8,-8</t>
+          <t>5.19,8.97</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Lenny(father): 0505536740</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>712.0</t>
+          <t>7:09:00</t>
         </is>
       </c>
     </row>
@@ -600,32 +600,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avihai </t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kipnis</t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2,-7</t>
+          <t>8.56,6.88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Bernardine(mother): 0576270618</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>719.0</t>
+          <t>7:14:00</t>
         </is>
       </c>
     </row>
@@ -637,32 +637,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sariel </t>
+          <t xml:space="preserve">Letha  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Basis</t>
+          <t xml:space="preserve">Stephenie  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2,-5</t>
+          <t>4.3,4.06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sibyl(mother): 0567328221</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>722.0</t>
+          <t>7:20:00</t>
         </is>
       </c>
     </row>
@@ -674,32 +674,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asaf </t>
+          <t xml:space="preserve">Jeanine  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Braymok</t>
+          <t xml:space="preserve">Janee  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4,-5</t>
+          <t>4.52,0.02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Teresa(mother): 0517627420</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>725.0</t>
+          <t>7:25:00</t>
         </is>
       </c>
     </row>
@@ -711,32 +711,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Omri</t>
+          <t xml:space="preserve">Britta  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ben Shabat</t>
+          <t xml:space="preserve">Jamel  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2,-3</t>
+          <t>0.82,2.52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Albertine(father): 0574981040</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>729.0</t>
+          <t>7:32:00</t>
         </is>
       </c>
     </row>
@@ -748,32 +748,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christina </t>
+          <t xml:space="preserve">Ema  </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Uksusman</t>
+          <t xml:space="preserve">Ardell  </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4,-1</t>
+          <t>-0.9,1.53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Carley(grandmother): 0533587167</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>733.0</t>
+          <t>7:35:00</t>
         </is>
       </c>
     </row>
@@ -798,14 +798,19 @@
           <t>mySchool</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Shir(secretary): 0523345098</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>738.0</t>
+          <t>7:37:00</t>
         </is>
       </c>
     </row>
@@ -829,7 +834,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>37.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wyatt  </t>
+          <t xml:space="preserve">Randolph  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willette  </t>
+          <t xml:space="preserve">Bridgette  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.69,7.1</t>
+          <t>-6.85,-6.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Antionette(father): 0557331799</t>
+          <t>Lenny(father): 0505536740</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -526,32 +526,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patti  </t>
+          <t xml:space="preserve">Corene  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lavenia  </t>
+          <t xml:space="preserve">Myra  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-2.21,7.91</t>
+          <t>-3.38,-8.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Jennell(mother): 0503029941</t>
+          <t>Georgie(mother): 0544823581</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:01:00</t>
+          <t>7:05:00</t>
         </is>
       </c>
     </row>
@@ -563,32 +563,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Randolph  </t>
+          <t xml:space="preserve">Lorinda  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bridgette  </t>
+          <t xml:space="preserve">Tyron  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.19,8.97</t>
+          <t>-3.53,-7.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lenny(father): 0505536740</t>
+          <t>Teresa(grandmother): 0558587699</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:09:00</t>
+          <t>7:07:00</t>
         </is>
       </c>
     </row>
@@ -600,32 +600,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.56,6.88</t>
+          <t>-3.79,-6.77</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0576270618</t>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:14:00</t>
+          <t>7:08:00</t>
         </is>
       </c>
     </row>
@@ -637,32 +637,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Letha  </t>
+          <t xml:space="preserve">Ema  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stephenie  </t>
+          <t xml:space="preserve">Ardell  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.3,4.06</t>
+          <t>-0.56,-5.4</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sibyl(mother): 0567328221</t>
+          <t>Carley(grandmother): 0533587167</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:20:00</t>
+          <t>7:13:00</t>
         </is>
       </c>
     </row>
@@ -674,32 +674,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeanine  </t>
+          <t xml:space="preserve">Frankie  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janee  </t>
+          <t xml:space="preserve">Flavia  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.52,0.02</t>
+          <t>-1.97,-1.28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Teresa(mother): 0517627420</t>
+          <t>Cyrus(mother): 0522363358</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:25:00</t>
+          <t>7:19:00</t>
         </is>
       </c>
     </row>
@@ -711,32 +711,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Britta  </t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamel  </t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.82,2.52</t>
+          <t>-2.77,1.85</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Albertine(father): 0574981040</t>
+          <t>Bernardine(mother): 0576270618</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:32:00</t>
+          <t>7:24:00</t>
         </is>
       </c>
     </row>
@@ -748,32 +748,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ema  </t>
+          <t xml:space="preserve">Nubia  </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ardell  </t>
+          <t xml:space="preserve">Royce  </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-0.9,1.53</t>
+          <t>-4.27,2.06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Carley(grandmother): 0533587167</t>
+          <t>Augustus(father): 0517389040</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:35:00</t>
+          <t>7:26:00</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7:37:00</t>
+          <t>7:32:00</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>32.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,32 +489,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wyatt  </t>
+          <t xml:space="preserve">Corene  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willette  </t>
+          <t xml:space="preserve">Myra  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.69,7.1</t>
+          <t>1.95,-8.2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Antionette(father): 0557331799</t>
+          <t>Georgie(mother): 0544823581</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>7:00:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>33.0</t>
         </is>
       </c>
     </row>
@@ -526,32 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patti  </t>
+          <t xml:space="preserve">Demetra  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lavenia  </t>
+          <t xml:space="preserve">Francene  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-2.21,7.91</t>
+          <t>1.4,-5.2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Jennell(mother): 0503029941</t>
+          <t>Dorian(mother): 0534328089</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:01:00</t>
+          <t>7:04:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>29.0</t>
         </is>
       </c>
     </row>
@@ -563,32 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Randolph  </t>
+          <t xml:space="preserve">Francisca  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bridgette  </t>
+          <t xml:space="preserve">Stevie  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.19,8.97</t>
+          <t>2.15,-5.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lenny(father): 0505536740</t>
+          <t>Bernardine(mother): 0561339273</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:09:00</t>
+          <t>7:06:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>27.0</t>
         </is>
       </c>
     </row>
@@ -600,32 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t xml:space="preserve">Collette  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t xml:space="preserve">Billi  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.56,6.88</t>
+          <t>4.71,-5.7</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0576270618</t>
+          <t>Elias(mother): 0578741979</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:14:00</t>
+          <t>7:09:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>24.0</t>
         </is>
       </c>
     </row>
@@ -637,32 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Letha  </t>
+          <t xml:space="preserve">Patti  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stephenie  </t>
+          <t xml:space="preserve">Lavenia  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.3,4.06</t>
+          <t>7.41,-6.16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sibyl(mother): 0567328221</t>
+          <t>Jennell(mother): 0503029941</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:20:00</t>
+          <t>7:13:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>20.0</t>
         </is>
       </c>
     </row>
@@ -674,32 +699,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeanine  </t>
+          <t xml:space="preserve">Randolph  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janee  </t>
+          <t xml:space="preserve">Bridgette  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.52,0.02</t>
+          <t>9.68,-3.45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Teresa(mother): 0517627420</t>
+          <t>Lenny(father): 0505536740</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:25:00</t>
+          <t>7:19:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -711,32 +741,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Britta  </t>
+          <t xml:space="preserve">Kandis  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamel  </t>
+          <t xml:space="preserve">Zulma  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.82,2.52</t>
+          <t>6.6,-1.08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Albertine(father): 0574981040</t>
+          <t>Kylie(mother): 0575413269</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:32:00</t>
+          <t>7:24:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -748,32 +783,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ema  </t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ardell  </t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-0.9,1.53</t>
+          <t>3.24,-0.78</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Carley(grandmother): 0533587167</t>
+          <t>Bernardine(mother): 0576270618</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:35:00</t>
+          <t>7:28:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -810,7 +850,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7:37:00</t>
+          <t>7:33:00</t>
         </is>
       </c>
     </row>
@@ -834,7 +874,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>33.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corene  </t>
+          <t xml:space="preserve">Patti  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Myra  </t>
+          <t xml:space="preserve">Lavenia  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.95,-8.2</t>
+          <t>-6.55,4.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Georgie(mother): 0544823581</t>
+          <t>Jennell(mother): 0503029941</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demetra  </t>
+          <t xml:space="preserve">Letha  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francene  </t>
+          <t xml:space="preserve">Stephenie  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.4,-5.2</t>
+          <t>-8.77,7.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dorian(mother): 0534328089</t>
+          <t>Sibyl(mother): 0567328221</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:04:00</t>
+          <t>7:05:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>25.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francisca  </t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevie  </t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.15,-5.14</t>
+          <t>-7.11,9.53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0561339273</t>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:06:00</t>
+          <t>7:09:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>21.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Collette  </t>
+          <t xml:space="preserve">Britta  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Billi  </t>
+          <t xml:space="preserve">Jamel  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.71,-5.7</t>
+          <t>-3.64,7.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elias(mother): 0578741979</t>
+          <t>Albertine(father): 0574981040</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:09:00</t>
+          <t>7:14:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patti  </t>
+          <t xml:space="preserve">Frankie  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lavenia  </t>
+          <t xml:space="preserve">Flavia  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.41,-6.16</t>
+          <t>1.45,4.78</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jennell(mother): 0503029941</t>
+          <t>Cyrus(mother): 0522363358</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:13:00</t>
+          <t>7:21:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -699,37 +699,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Randolph  </t>
+          <t xml:space="preserve">Francisca  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bridgette  </t>
+          <t xml:space="preserve">Stevie  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.68,-3.45</t>
+          <t>-0.28,2.19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lenny(father): 0505536740</t>
+          <t>Bernardine(mother): 0561339273</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:19:00</t>
+          <t>7:25:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -741,140 +741,98 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kandis  </t>
+          <t xml:space="preserve">Fay  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zulma  </t>
+          <t xml:space="preserve">Emilee  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.6,-1.08</t>
+          <t>0.33,2.02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kylie(mother): 0575413269</t>
+          <t>Sheri(mother): 0516797453</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:24:00</t>
+          <t>7:26:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Ironiah</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t>mySchool</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.24,-0.78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0576270618</t>
+          <t>Shir(secretary): 0523345098</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:28:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>5.0</t>
+          <t>7:30:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ironiah</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>mySchool</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Shir(secretary): 0523345098</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>7:33:00</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>33.0</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patti  </t>
+          <t xml:space="preserve">Randolph  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lavenia  </t>
+          <t xml:space="preserve">Bridgette  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.55,4.12</t>
+          <t>-8.86,-5.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jennell(mother): 0503029941</t>
+          <t>Lenny(father): 0505536740</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>33.0</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Letha  </t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stephenie  </t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-8.77,7.51</t>
+          <t>-5.2,-4.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sibyl(mother): 0567328221</t>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>28.0</t>
         </is>
       </c>
     </row>
@@ -573,27 +573,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wyatt  </t>
+          <t xml:space="preserve">Collette  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willette  </t>
+          <t xml:space="preserve">Billi  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-7.11,9.53</t>
+          <t>-4.8,-6.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Antionette(father): 0557331799</t>
+          <t>Elias(mother): 0578741979</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>24.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Britta  </t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamel  </t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-3.64,7.49</t>
+          <t>-4.29,-7.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Albertine(father): 0574981040</t>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:14:00</t>
+          <t>7:11:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frankie  </t>
+          <t xml:space="preserve">Marni  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flavia  </t>
+          <t xml:space="preserve">Shanika  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.45,4.78</t>
+          <t>-1.97,-7.93</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cyrus(mother): 0522363358</t>
+          <t>Lady(mother): 0560804012</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:21:00</t>
+          <t>7:14:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>19.0</t>
         </is>
       </c>
     </row>
@@ -699,37 +699,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francisca  </t>
+          <t xml:space="preserve">Jeanine  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevie  </t>
+          <t xml:space="preserve">Janee  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-0.28,2.19</t>
+          <t>2.72,-7.47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0561339273</t>
+          <t>Teresa(mother): 0517627420</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:25:00</t>
+          <t>7:21:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -741,37 +741,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fay  </t>
+          <t xml:space="preserve">Alexia  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emilee  </t>
+          <t xml:space="preserve">Ramonita  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.33,2.02</t>
+          <t>-0.99,0.61</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sheri(mother): 0516797453</t>
+          <t>Han(father): 0567537032</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:26:00</t>
+          <t>7:31:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:30:00</t>
+          <t>7:33:00</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>33.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patti  </t>
+          <t xml:space="preserve">Elwanda  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lavenia  </t>
+          <t xml:space="preserve">Cassy  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.55,4.12</t>
+          <t>-5.57,-9.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jennell(mother): 0503029941</t>
+          <t>Tamisha(mother): 0550693864</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>46.0</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Letha  </t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stephenie  </t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-8.77,7.51</t>
+          <t>-8.77,-7.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sibyl(mother): 0567328221</t>
+          <t>Bernardine(mother): 0576270618</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>41.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wyatt  </t>
+          <t xml:space="preserve">Ema  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willette  </t>
+          <t xml:space="preserve">Ardell  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-7.11,9.53</t>
+          <t>-3.09,-3.85</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Antionette(father): 0557331799</t>
+          <t>Carley(grandmother): 0533587167</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:09:00</t>
+          <t>7:13:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>33.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Britta  </t>
+          <t xml:space="preserve">Alexia  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamel  </t>
+          <t xml:space="preserve">Ramonita  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-3.64,7.49</t>
+          <t>-1.78,-3.65</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Albertine(father): 0574981040</t>
+          <t>Han(father): 0567537032</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:14:00</t>
+          <t>7:15:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>31.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frankie  </t>
+          <t xml:space="preserve">Patti  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flavia  </t>
+          <t xml:space="preserve">Lavenia  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.45,4.78</t>
+          <t>-0.56,-6.13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cyrus(mother): 0522363358</t>
+          <t>Jennell(mother): 0503029941</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:21:00</t>
+          <t>7:19:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>27.0</t>
         </is>
       </c>
     </row>
@@ -699,37 +699,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francisca  </t>
+          <t xml:space="preserve">Kandis  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevie  </t>
+          <t xml:space="preserve">Zulma  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-0.28,2.19</t>
+          <t>1.22,-9.32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0561339273</t>
+          <t>Kylie(mother): 0575413269</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:25:00</t>
+          <t>7:24:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
@@ -741,98 +741,140 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fay  </t>
+          <t xml:space="preserve">Francisca  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emilee  </t>
+          <t xml:space="preserve">Stevie  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.33,2.02</t>
+          <t>7.54,-8.77</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sheri(mother): 0516797453</t>
+          <t>Bernardine(mother): 0561339273</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:26:00</t>
+          <t>7:31:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ironiah</t>
+          <t xml:space="preserve">Demetra  </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>mySchool</t>
+          <t xml:space="preserve">Francene  </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1.17,-4.35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Shir(secretary): 0523345098</t>
+          <t>Dorian(mother): 0534328089</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:30:00</t>
+          <t>7:39:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mySchool</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Shir(secretary): 0523345098</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>7:46:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>30.0</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>46.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elwanda  </t>
+          <t xml:space="preserve">Marni  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cassy  </t>
+          <t xml:space="preserve">Shanika  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-5.57,-9.66</t>
+          <t>3.52,-5.3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tamisha(mother): 0550693864</t>
+          <t>Lady(mother): 0560804012</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>31.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-8.77,-7.22</t>
+          <t>5.19,-5.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0576270618</t>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:05:00</t>
+          <t>7:03:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>28.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ema  </t>
+          <t xml:space="preserve">Corene  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ardell  </t>
+          <t xml:space="preserve">Myra  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-3.09,-3.85</t>
+          <t>7.75,-1.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Carley(grandmother): 0533587167</t>
+          <t>Georgie(mother): 0544823581</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:13:00</t>
+          <t>7:09:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexia  </t>
+          <t xml:space="preserve">Ema  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ramonita  </t>
+          <t xml:space="preserve">Ardell  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-1.78,-3.65</t>
+          <t>6.04,5.4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Han(father): 0567537032</t>
+          <t>Carley(grandmother): 0533587167</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:15:00</t>
+          <t>7:18:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -657,224 +657,98 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patti  </t>
+          <t xml:space="preserve">Fay  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lavenia  </t>
+          <t xml:space="preserve">Emilee  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.56,-6.13</t>
+          <t>4.45,1.94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jennell(mother): 0503029941</t>
+          <t>Sheri(mother): 0516797453</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:19:00</t>
+          <t>7:24:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kandis  </t>
+          <t>Ironiah</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zulma  </t>
+          <t>mySchool</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.22,-9.32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kylie(mother): 0575413269</t>
+          <t>Shir(secretary): 0523345098</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:24:00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>22.0</t>
+          <t>7:31:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francisca  </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stevie  </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.54,-8.77</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bernardine(mother): 0561339273</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>7:31:00</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>15.0</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Demetra  </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francene  </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.17,-4.35</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Dorian(mother): 0534328089</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>7:39:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ironiah</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>mySchool</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Shir(secretary): 0523345098</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>7:46:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>46.0</t>
+          <t>31.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marni  </t>
+          <t xml:space="preserve">Elwanda  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shanika  </t>
+          <t xml:space="preserve">Cassy  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.52,-5.3</t>
+          <t>-1.07,-9.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lady(mother): 0560804012</t>
+          <t>Tamisha(mother): 0550693864</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wyatt  </t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willette  </t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.19,-5.63</t>
+          <t>-0.75,-7.75</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Antionette(father): 0557331799</t>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:03:00</t>
+          <t>7:02:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corene  </t>
+          <t xml:space="preserve">Marni  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Myra  </t>
+          <t xml:space="preserve">Shanika  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.75,-1.13</t>
+          <t>1.1,-7.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Georgie(mother): 0544823581</t>
+          <t>Lady(mother): 0560804012</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:09:00</t>
+          <t>7:05:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ema  </t>
+          <t xml:space="preserve">Frankie  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ardell  </t>
+          <t xml:space="preserve">Flavia  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.04,5.4</t>
+          <t>-2.25,-1.67</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Carley(grandmother): 0533587167</t>
+          <t>Cyrus(mother): 0522363358</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:18:00</t>
+          <t>7:14:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fay  </t>
+          <t xml:space="preserve">Randolph  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emilee  </t>
+          <t xml:space="preserve">Bridgette  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.45,1.94</t>
+          <t>1.09,-0.75</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sheri(mother): 0516797453</t>
+          <t>Lenny(father): 0505536740</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:24:00</t>
+          <t>7:20:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:31:00</t>
+          <t>7:22:00</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elwanda  </t>
+          <t xml:space="preserve">Corene  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cassy  </t>
+          <t xml:space="preserve">Myra  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.07,-9.07</t>
+          <t>9.49,-6.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tamisha(mother): 0550693864</t>
+          <t>Georgie(mother): 0544823581</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>38.0</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trudie  </t>
+          <t xml:space="preserve">Kandis  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleta  </t>
+          <t xml:space="preserve">Zulma  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-0.75,-7.75</t>
+          <t>8.29,-7.69</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Anneliese(father): 0548973345</t>
+          <t>Kylie(mother): 0575413269</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>36.0</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.1,-7.16</t>
+          <t>5.69,-7.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:05:00</t>
+          <t>7:06:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>32.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frankie  </t>
+          <t xml:space="preserve">Britta  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flavia  </t>
+          <t xml:space="preserve">Jamel  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-2.25,-1.67</t>
+          <t>6.47,-7.05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cyrus(mother): 0522363358</t>
+          <t>Albertine(father): 0574981040</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:14:00</t>
+          <t>7:07:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>31.0</t>
         </is>
       </c>
     </row>
@@ -657,98 +657,266 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Randolph  </t>
+          <t xml:space="preserve">Jeanine  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bridgette  </t>
+          <t xml:space="preserve">Janee  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.09,-0.75</t>
+          <t>5.65,-4.22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lenny(father): 0505536740</t>
+          <t>Teresa(mother): 0517627420</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:20:00</t>
+          <t>7:11:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>27.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ironiah</t>
+          <t xml:space="preserve">Collette  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>mySchool</t>
+          <t xml:space="preserve">Billi  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2.26,-5.81</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Shir(secretary): 0523345098</t>
+          <t>Elias(mother): 0578741979</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:22:00</t>
+          <t>7:20:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Demetra  </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francene  </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-5.32,-4.6</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dorian(mother): 0534328089</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>7:25:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>13.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patti  </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lavenia  </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-0.7,-4.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Jennell(mother): 0503029941</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7:32:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nubia  </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Royce  </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-1.16,-3.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Augustus(father): 0517389040</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>7:33:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>mySchool</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Shir(secretary): 0523345098</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>7:38:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>22.0</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>38.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Letha  </t>
+          <t xml:space="preserve">Nubia  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stephenie  </t>
+          <t xml:space="preserve">Royce  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.97,3.45</t>
+          <t>-6.51,-7.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sibyl(mother): 0567328221</t>
+          <t>Augustus(father): 0517389040</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demetra  </t>
+          <t xml:space="preserve">Patti  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francene  </t>
+          <t xml:space="preserve">Lavenia  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.11,0.09</t>
+          <t>-7.72,-6.58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dorian(mother): 0534328089</t>
+          <t>Jennell(mother): 0503029941</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:08:00</t>
+          <t>7:02:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ema  </t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ardell  </t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.79,3.4</t>
+          <t>-8.79,-8.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Carley(grandmother): 0533587167</t>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:13:00</t>
+          <t>7:05:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeanine  </t>
+          <t xml:space="preserve">Alexia  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janee  </t>
+          <t xml:space="preserve">Ramonita  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.53,6.07</t>
+          <t>-9.72,-4.29</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Teresa(mother): 0517627420</t>
+          <t>Han(father): 0567537032</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:17:00</t>
+          <t>7:10:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -657,182 +657,98 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Collette  </t>
+          <t xml:space="preserve">Randolph  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Billi  </t>
+          <t xml:space="preserve">Bridgette  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-2.57,5.49</t>
+          <t>-7.84,-3.31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Elias(mother): 0578741979</t>
+          <t>Lenny(father): 0505536740</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:23:00</t>
+          <t>7:13:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Ironiah</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t>mySchool</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-4.8,7.15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0576270618</t>
+          <t>Shir(secretary): 0523345098</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:27:00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>11.0</t>
+          <t>7:22:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kandis  </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zulma  </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-3.48,2.5</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kylie(mother): 0575413269</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>7:33:00</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>5.0</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Ironiah</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>mySchool</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Shir(secretary): 0523345098</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>7:38:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>38.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wyatt  </t>
+          <t xml:space="preserve">Frankie  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willette  </t>
+          <t xml:space="preserve">Flavia  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-8.79,-8.37</t>
+          <t>-6.18,0.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Antionette(father): 0557331799</t>
+          <t>Cyrus(mother): 0522363358</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>73.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patti  </t>
+          <t xml:space="preserve">Collette  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lavenia  </t>
+          <t xml:space="preserve">Billi  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-7.72,-6.58</t>
+          <t>-9.7,3.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Jennell(mother): 0503029941</t>
+          <t>Elias(mother): 0578741979</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:03:00</t>
+          <t>7:06:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>67.0</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-6.51,-7.02</t>
+          <t>-4.39,-9.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:05:00</t>
+          <t>7:21:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>52.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexia  </t>
+          <t xml:space="preserve">Elwanda  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ramonita  </t>
+          <t xml:space="preserve">Cassy  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-9.72,-4.29</t>
+          <t>4.19,-8.26</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Han(father): 0567537032</t>
+          <t>Tamisha(mother): 0550693864</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:10:00</t>
+          <t>7:30:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>43.0</t>
         </is>
       </c>
     </row>
@@ -657,98 +657,266 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Randolph  </t>
+          <t xml:space="preserve">Fay  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bridgette  </t>
+          <t xml:space="preserve">Emilee  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-7.84,-3.31</t>
+          <t>9.23,-5.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lenny(father): 0505536740</t>
+          <t>Sheri(mother): 0516797453</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:13:00</t>
+          <t>7:39:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>34.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ironiah</t>
+          <t xml:space="preserve">Lorinda  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>mySchool</t>
+          <t xml:space="preserve">Tyron  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8.51,2.48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Shir(secretary): 0523345098</t>
+          <t>Teresa(grandmother): 0558587699</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:23:00</t>
+          <t>7:50:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>23.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wyatt  </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Willette  </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.57,3.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Antionette(father): 0557331799</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>7:52:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>21.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Letha  </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stephenie  </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7.25,7.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sibyl(mother): 0567328221</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7:58:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Britta  </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jamel  </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.31,1.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Albertine(father): 0574981040</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>8:08:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>mySchool</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Shir(secretary): 0523345098</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>8:13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>23.0</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>73.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frankie  </t>
+          <t xml:space="preserve">Kandis  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flavia  </t>
+          <t xml:space="preserve">Zulma  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.18,0.92</t>
+          <t>8.45,-6.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cyrus(mother): 0522363358</t>
+          <t>Kylie(mother): 0575413269</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>33.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Collette  </t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Billi  </t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-9.7,3.02</t>
+          <t>6.02,-4.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Elias(mother): 0578741979</t>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:06:00</t>
+          <t>7:04:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>29.0</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-4.39,-9.47</t>
+          <t>3.58,-8.58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:21:00</t>
+          <t>7:10:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>23.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elwanda  </t>
+          <t xml:space="preserve">Collette  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cassy  </t>
+          <t xml:space="preserve">Billi  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.19,-8.26</t>
+          <t>2.68,-8.19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tamisha(mother): 0550693864</t>
+          <t>Elias(mother): 0578741979</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:30:00</t>
+          <t>7:12:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>21.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fay  </t>
+          <t xml:space="preserve">Frankie  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emilee  </t>
+          <t xml:space="preserve">Flavia  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.23,-5.43</t>
+          <t>2.57,-6.74</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sheri(mother): 0516797453</t>
+          <t>Cyrus(mother): 0522363358</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:39:00</t>
+          <t>7:14:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>19.0</t>
         </is>
       </c>
     </row>
@@ -699,37 +699,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorinda  </t>
+          <t xml:space="preserve">Demetra  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tyron  </t>
+          <t xml:space="preserve">Francene  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.51,2.48</t>
+          <t>2.58,-5.38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Teresa(grandmother): 0558587699</t>
+          <t>Dorian(mother): 0534328089</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:50:00</t>
+          <t>7:16:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
@@ -741,37 +741,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wyatt  </t>
+          <t xml:space="preserve">Marni  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willette  </t>
+          <t xml:space="preserve">Shanika  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.57,3.95</t>
+          <t>4.06,-2.78</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Antionette(father): 0557331799</t>
+          <t>Lady(mother): 0560804012</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:52:00</t>
+          <t>7:20:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -783,37 +783,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Letha  </t>
+          <t xml:space="preserve">Corene  </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stephenie  </t>
+          <t xml:space="preserve">Myra  </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.25,7.75</t>
+          <t>2.63,-0.47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sibyl(mother): 0567328221</t>
+          <t>Georgie(mother): 0544823581</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:58:00</t>
+          <t>7:24:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -825,37 +825,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Britta  </t>
+          <t xml:space="preserve">Alexia  </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamel  </t>
+          <t xml:space="preserve">Ramonita  </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.31,1.01</t>
+          <t>3.53,1.52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Albertine(father): 0574981040</t>
+          <t>Han(father): 0567537032</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>8:08:00</t>
+          <t>7:27:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8:13:00</t>
+          <t>7:33:00</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>33.0</t>
         </is>
       </c>
     </row>

--- a/Groups1.xlsx
+++ b/Groups1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kandis  </t>
+          <t xml:space="preserve">Elwanda  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zulma  </t>
+          <t xml:space="preserve">Cassy  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.45,-6.05</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kylie(mother): 0575413269</t>
+          <t>Tamisha(mother): 0550693864</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>21.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wyatt  </t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willette  </t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.02,-4.91</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Antionette(father): 0557331799</t>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:04:00</t>
+          <t>7:03:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>18.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nubia  </t>
+          <t xml:space="preserve">Francisca  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Royce  </t>
+          <t xml:space="preserve">Stevie  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.58,-8.58</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Augustus(father): 0517389040</t>
+          <t>Bernardine(mother): 0561339273</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:10:00</t>
+          <t>7:06:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Collette  </t>
+          <t xml:space="preserve">Alexia  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Billi  </t>
+          <t xml:space="preserve">Ramonita  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.68,-8.19</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elias(mother): 0578741979</t>
+          <t>Han(father): 0567537032</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:12:00</t>
+          <t>7:08:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -657,266 +657,98 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frankie  </t>
+          <t xml:space="preserve">Corene  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flavia  </t>
+          <t xml:space="preserve">Myra  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.57,-6.74</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cyrus(mother): 0522363358</t>
+          <t>Georgie(mother): 0544823581</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:14:00</t>
+          <t>7:10:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demetra  </t>
+          <t>Ironiah</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francene  </t>
+          <t>mySchool</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.58,-5.38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dorian(mother): 0534328089</t>
+          <t>Shir(secretary): 0523345098</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:16:00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>17.0</t>
+          <t>7:21:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marni  </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shanika  </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.06,-2.78</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Lady(mother): 0560804012</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>7:20:00</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>13.0</t>
+          <t>55.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corene  </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Myra  </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.63,-0.47</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Georgie(mother): 0544823581</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>7:24:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexia  </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ramonita  </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.53,1.52</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Han(father): 0567537032</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>7:27:00</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Ironiah</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>mySchool</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Shir(secretary): 0523345098</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>7:33:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>33.0</t>
+          <t>21.0</t>
         </is>
       </c>
     </row>
